--- a/biology/Zoologie/Aigle_orné/Aigle_orné.xlsx
+++ b/biology/Zoologie/Aigle_orné/Aigle_orné.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aigle_orn%C3%A9</t>
+          <t>Aigle_orné</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spizaetus ornatus
 L'Aigle orné (Spizaetus ornatus) est une espèce d'oiseaux de proie, qui comme tous les aigles, est de la famille des Accipitridae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aigle_orn%C3%A9</t>
+          <t>Aigle_orné</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il prospère dans la plupart des forêts tropicales depuis le sud du Mexique jusqu'au Pérou et en Argentine.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aigle_orn%C3%A9</t>
+          <t>Aigle_orné</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il construit un grand nid de branchages dans un arbre.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aigle_orn%C3%A9</t>
+          <t>Aigle_orné</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Aigle orné est un prédateur moyen à grand d'à peu près 58 à 64cm de long. Il pèse 1200 g. Il a une crête pointue et proéminente, dressée s'il est excité, une robe noire, des ailes larges et une longue queue.
 L'adulte typique a une moitié supérieure et une tête très foncées, des flancs châtain clair jusqu'au cou et à la poitrine, une gorge blanche entourée de noir. Les membres inférieurs et les cuisses sont blancs rayés de noir et la queue a de grandes taches noires. Sous les ailes, il est blanc.
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aigle_orn%C3%A9</t>
+          <t>Aigle_orné</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son régime se compose d'oiseaux, ainsi que de petits mammifères et des petits reptiles.
 </t>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aigle_orn%C3%A9</t>
+          <t>Aigle_orné</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des deux sous-espèces suivantes :
 Spizaetus ornatus ornatus  (Daudin) 1800
